--- a/References/C_Input/Final_C_input_Calculation.xlsx
+++ b/References/C_Input/Final_C_input_Calculation.xlsx
@@ -5,17 +5,30 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/SOC Modeling/RothC/Initializing Model/C_Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihirbendre/Documents/Gazelle/Gazelle_2025/Ghana_Project/SOC Modeling/RothC/RothC_Implementation/Documentation/axam-docs/References/C_Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{1B62BE8E-3C4C-5046-B146-A8C3B2C0D23B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2A099E-B793-494E-8EEC-A03A6E01AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="640" windowWidth="28040" windowHeight="17360" xr2:uid="{3B82E5F8-9135-5B44-BE62-EE1F71B6AA73}"/>
+    <workbookView xWindow="360" yWindow="8320" windowWidth="28040" windowHeight="10040" xr2:uid="{3B82E5F8-9135-5B44-BE62-EE1F71B6AA73}"/>
   </bookViews>
   <sheets>
     <sheet name="Final_C_input_Calculation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1049,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB8F999-A1C5-D445-9BD8-A8946719E5FB}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
